--- a/coils.xlsx
+++ b/coils.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>steel grade</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>priority</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +401,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -417,8 +420,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -434,8 +440,11 @@
       <c r="E2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,8 +460,11 @@
       <c r="E3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="E4">
         <v>23.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -485,8 +500,11 @@
       <c r="E5">
         <v>26.4864</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -502,8 +520,11 @@
       <c r="E6">
         <v>79.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -519,8 +540,11 @@
       <c r="E7">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -536,8 +560,11 @@
       <c r="E8">
         <v>65.444500000000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -553,8 +580,11 @@
       <c r="E9">
         <v>65.232299999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -570,8 +600,11 @@
       <c r="E10">
         <v>64.23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -587,8 +620,11 @@
       <c r="E11">
         <v>29.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -604,8 +640,11 @@
       <c r="E12">
         <v>77.156165099999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -621,8 +660,11 @@
       <c r="E13">
         <v>56.56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -638,8 +680,11 @@
       <c r="E14">
         <v>54.23</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -655,8 +700,11 @@
       <c r="E15">
         <v>24.26</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -670,10 +718,13 @@
         <v>5.86</v>
       </c>
       <c r="E16">
-        <v>89.477999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79.468000000000004</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -689,8 +740,11 @@
       <c r="E17">
         <v>74.561999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -706,8 +760,11 @@
       <c r="E18">
         <v>26.145</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -723,8 +780,11 @@
       <c r="E19">
         <v>28.486000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -740,8 +800,11 @@
       <c r="E20">
         <v>75.156000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -756,6 +819,9 @@
       </c>
       <c r="E21">
         <v>74.56</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/coils.xlsx
+++ b/coils.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>steel grade</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>coil #</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
 </sst>
 </file>
@@ -385,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +395,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -417,14 +411,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -440,11 +428,8 @@
       <c r="E2">
         <v>21</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -460,11 +445,8 @@
       <c r="E3">
         <v>22</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,11 +462,8 @@
       <c r="E4">
         <v>23.23</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -500,11 +479,8 @@
       <c r="E5">
         <v>26.4864</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -520,11 +496,8 @@
       <c r="E6">
         <v>79.55</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -540,11 +513,8 @@
       <c r="E7">
         <v>75.5</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -560,11 +530,8 @@
       <c r="E8">
         <v>65.444500000000005</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -580,11 +547,8 @@
       <c r="E9">
         <v>65.232299999999995</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -600,11 +564,8 @@
       <c r="E10">
         <v>64.23</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -620,11 +581,8 @@
       <c r="E11">
         <v>29.24</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -640,11 +598,8 @@
       <c r="E12">
         <v>77.156165099999996</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -660,11 +615,8 @@
       <c r="E13">
         <v>56.56</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -680,11 +632,8 @@
       <c r="E14">
         <v>54.23</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -700,11 +649,8 @@
       <c r="E15">
         <v>24.26</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -720,11 +666,8 @@
       <c r="E16">
         <v>79.468000000000004</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -740,11 +683,8 @@
       <c r="E17">
         <v>74.561999999999998</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -760,11 +700,8 @@
       <c r="E18">
         <v>26.145</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -780,11 +717,8 @@
       <c r="E19">
         <v>28.486000000000001</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -800,11 +734,8 @@
       <c r="E20">
         <v>75.156000000000006</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -819,9 +750,6 @@
       </c>
       <c r="E21">
         <v>74.56</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
